--- a/biology/Botanique/Rinorea_flavescens/Rinorea_flavescens.xlsx
+++ b/biology/Botanique/Rinorea_flavescens/Rinorea_flavescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,17 +490,19 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rinorea flavescens est une espèce d'arbuste néotropical appartenant à la famille des Violaceae.
 Rinorea flavescens est connu en Guyane sous les noms de Bois lélé (Créole), Ãyù (Wayãpi), Barririkoti, Boumbikidia (Aukan, Paramaka), Conohorie, Conori (Caraib language, Aublet (1775)), Lèlè-tiki (Nenge tongo), Pareban Kamwi, Pare Banwi (Oyapock).
 Ailleurs,
 au Brésil on l'appelle Canela de Garca (Amapá), Jacamín renepeá (Pará).
 Au Suriname on l'appelle Koerrarè, Akami(e) Koerrarè, Akamie eknoerarsi (Caraib), Bar(r)ikoet(j)i, Baririkoti, Baririkuti (=patte de poule Arawak), Dreeritiki, Driltiki, Driritiki (Sranan tongo), Drilstokje (Hollandais du Suriname), Lèlè Lèlè-tiki (Sranan tongo), Namuduni, Gankikisè (Saramaka), Mamoedoemmi(e), Mamoedoemni, Namoedoemi.
-Au Guyana on l'appelle Poripjori (Carib)[3], Baridi (=Barudi) kut(ch)i (="patte de poule" Arawak), Ifa-kut(ch)i (="patte de canard" Arawak), Mamusaré (Arawak), Shero (Wapisiana), Shipiye (Macusil).
-Au Venezuela on l'appelle Gaspadillo, Icaco, Jonojodedö (Yekwana), Kurunmota-yek (Pemón), Molenillo[4] Kurumota, Kurun-mota-yek (Bolívar, Arekuna de la région de Rio Caroni).
+Au Guyana on l'appelle Poripjori (Carib), Baridi (=Barudi) kut(ch)i (="patte de poule" Arawak), Ifa-kut(ch)i (="patte de canard" Arawak), Mamusaré (Arawak), Shero (Wapisiana), Shipiye (Macusil).
+Au Venezuela on l'appelle Gaspadillo, Icaco, Jonojodedö (Yekwana), Kurunmota-yek (Pemón), Molenillo Kurumota, Kurun-mota-yek (Bolívar, Arekuna de la région de Rio Caroni).
 En Colombie on l'appelle Oo-má-hé-o (Amazonas, Tanimuku), Palo duro (Vaupés), Doi-Yo-ki (Vaupés, Kubeo).
-Au Pérou on l'appelle Takit (Amazonas, Huambisa), Tsachira kumpari (Amazonas et Loreto, Huambisa), Yutabanco (Loreto)[5].
+Au Pérou on l'appelle Takit (Amazonas, Huambisa), Tsachira kumpari (Amazonas et Loreto, Huambisa), Yutabanco (Loreto).
 </t>
         </is>
       </c>
@@ -519,7 +531,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rinorea flavescens est un petit arbre ou un arbrisseau haut de 1 à 20 m.
 Les rameaux sont souvent violacés une fois secs, peu pubérulents dorés à poilus apprimés ou hispides, devenant glabrescents à complètement glabres avec l'âge. 
@@ -549,10 +563,10 @@
 Le fruit est une capsule coriace à subligneuse, mesurant 20-25 mm, de forme plus ou moins symétrique, ovoïde à ellipsoïde, acuminée, de couleur verte et brunâtre, devenant rougeâtre avec l'âge (brun rougeâtre à violacée au séchage), généralement glabre, parfois légèrement dorée, veinée, avec des pièces florales persistantes à la base.
 Les 3 valves sont sub-égales, mesurant 1,5-2,5(-3) x 0,4-0,8 cm.
 Chaque valve compte (1)-2 graines glabres, globuleuses, mesurant 5-6 mm de diamètre
-[7],
-[4],
-[5].
-Rinorea flavescens est étroitement apparenté à R. falcata et R. camptoneura. Il s'en distingue par son ovaire (quasi-)glabre. Il fut souvent confondu avec R. pubiflora par divers auteurs du XIXe siècle, notamment en raison du fait que Aublet (1775) a décrit Conohoria flavescens uniquement à partir de spécimens en fleurs et Passoura guianensis uniquement à partir de spécimens en fruits[5].
+,
+,
+.
+Rinorea flavescens est étroitement apparenté à R. falcata et R. camptoneura. Il s'en distingue par son ovaire (quasi-)glabre. Il fut souvent confondu avec R. pubiflora par divers auteurs du XIXe siècle, notamment en raison du fait que Aublet (1775) a décrit Conohoria flavescens uniquement à partir de spécimens en fleurs et Passoura guianensis uniquement à partir de spécimens en fruits.
 </t>
         </is>
       </c>
@@ -581,10 +595,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rinorea flavescens est principalement présent en Amazonie (Brésil, Venezuela, Colombie, Équateur, Pérou), ainsi que la région adjacente du Haut Orénoque (Bolívar, Amazonas)[4], et les Guyanes (Guyana, le Suriname, la Guyane).
-Il existe aussi une population disjointe dans le nord-ouest de la Colombie (nord et ouest de la Cordillère des Andes orientale)[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rinorea flavescens est principalement présent en Amazonie (Brésil, Venezuela, Colombie, Équateur, Pérou), ainsi que la région adjacente du Haut Orénoque (Bolívar, Amazonas), et les Guyanes (Guyana, le Suriname, la Guyane).
+Il existe aussi une population disjointe dans le nord-ouest de la Colombie (nord et ouest de la Cordillère des Andes orientale).
 </t>
         </is>
       </c>
@@ -613,17 +629,19 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Rinorea flavescens est commun dans le sous-étage des forêts tropicales humides anciennes et secondaires, depuis le niveau de la mer jusqu'aux zones sub-montagnardes, de 0 à 700 m d'altitude.
 Des spécimens ont été collectés sur les pentes des reliefs, dans les talwegs et le long des rivières, et des ruisseaux.
 Il pousse dans les zones non inondées comme les dunes et les crêtes fluviales, mais aussi dans des zones périodiquement inondées, sur des sols quartzitiques, bauxitiques, ferro-latéritiques, argileux ou sableux, principalement riches en Al mais pauvres en nutriments (P, Ca, K, Mg, Cu, B, Mn, Zn).
-Il fleurit et fructifie toute l'année[5].
-Au Venezuela, on le rencontre dans les forêts sempervirentes de plaine à montagnardes, autour de 50–1 000 m d'altitude[4].
-Rinorea flavescens parait peu sensible à l'intensité de l'exploitation forestière dans le Pará[8].
-La croissance de son diamètre a été étudiée dans le Pará[9].
-Rinorea flavescens fait partie des espèces les plus communes du sous-bois dans des forêts du Pará, avec 76 ind./ha[10], ou 29.3% de recouvrement de la strate inférieure[11].
-Les feuilles de Rinorea flavescens sont très occasionnellement récoltées par les fourmis Atta cephalotes L.[12].
+Il fleurit et fructifie toute l'année.
+Au Venezuela, on le rencontre dans les forêts sempervirentes de plaine à montagnardes, autour de 50–1 000 m d'altitude.
+Rinorea flavescens parait peu sensible à l'intensité de l'exploitation forestière dans le Pará.
+La croissance de son diamètre a été étudiée dans le Pará.
+Rinorea flavescens fait partie des espèces les plus communes du sous-bois dans des forêts du Pará, avec 76 ind./ha, ou 29.3% de recouvrement de la strate inférieure.
+Les feuilles de Rinorea flavescens sont très occasionnellement récoltées par les fourmis Atta cephalotes L..
 </t>
         </is>
       </c>
@@ -652,10 +670,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les noms surinamais Dreeritiki, Drilstokje, Driltiki, Driritiki, Lèlè Lèlè-tiki et guyanais Bois lélé indiquent que les rameaux sont utilisés pour fabriquer des lélés destinés à mélanger les boissons (comme R. pubiflora)[5].
-Rinorea flavescens est employé seulement comme bois de chauffe chez les amérindiens du nord du Guyana[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les noms surinamais Dreeritiki, Drilstokje, Driltiki, Driritiki, Lèlè Lèlè-tiki et guyanais Bois lélé indiquent que les rameaux sont utilisés pour fabriquer des lélés destinés à mélanger les boissons (comme R. pubiflora).
+Rinorea flavescens est employé seulement comme bois de chauffe chez les amérindiens du nord du Guyana.
 </t>
         </is>
       </c>
@@ -684,9 +704,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet qui le premier décrivit Rinorea flavescens sous le nom de Conohoria flavescens, en proposa le protologue suivant[13]: 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet qui le premier décrivit Rinorea flavescens sous le nom de Conohoria flavescens, en proposa le protologue suivant: 
 « CONOHORIA (flaveſcens). (Tabula 95.)
 Frutex trunco tri &amp; quadri-pedali, ad ſummitatem ramoſo ; ramis undique ſparſis, nodoſis. Folia oppoſita, ovata, acuta, glabra, integerrima, brevi petiolata. Flores ſpicati, terminales, alternatim diſpoſiti ; ſinguli pedunculati, pedunculo ad baſim squamula, &amp; in medio duabus squamulis munito. Corolla flaveſcens.
 Florebat Septembri.
